--- a/Books Closed.xlsx
+++ b/Books Closed.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="343">
   <si>
     <t xml:space="preserve">#</t>
   </si>
@@ -34,22 +34,1373 @@
     <t xml:space="preserve">Date Finished</t>
   </si>
   <si>
+    <t xml:space="preserve">Animorphs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Katherine Applegate, Michael Grant, Pub: June 1996–May 2001 (original run); May 2011–September 2012 (re-issue) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nancy Drew Books</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edward Stratemeyer, Ghostwriters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jungle Book (part 1 &amp; 2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rudyard Kipling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Da Vinci Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dan Brown (2010)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 States</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chetan Bhagat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accidental Billionaires</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ben Mezrich (2011)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Alchemist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paulo Coelho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How to read better, faster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Norman Lewis (2015)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Management and organizational behavior</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TN Chabra, RK Chopra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The power of your subconscious mind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr Joseph Murphy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> My experiments with truth </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MK Gandhi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Goosebumps </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RL Stine</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oliver Twist </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charles Dickens</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tom Sawyer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mark Twain</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Harry Potter and Philosopher's stone </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JK Rowling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Who would cry when you will die</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Robin Sharma</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> How to stop worrying and start living </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dale Carnegie</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Steve Jobs </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Walter Isaacson</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Five point someone </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You can sell </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shiv Khera</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Living with honor </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Turning point 1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BAPS Sadhus;  Swaminarayan Aksharpith </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Turning point 2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You can win </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Shiv Khera</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Building a winning culture </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bain and Company</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lie spotting </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pamela Meyer</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Blink </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Malcolm Gladwell</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tipping point </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Swaraj </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Arvind Kejriwal</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Freakonomics </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Steven D. Levitt</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Wings of fire </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> APJ Abdul Kalam</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> How not to be wrong </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jordan Ellenberg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Primal leadership. Lesson in emotional intelligence   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daniel Goleman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intelligent investor</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Benjamin Graham</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The goal </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> EM Goldratt</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Justice </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Michael J Sandel</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> How To Win Friends And Influence People </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dale Carnegie </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Little book of common sense investing </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> John C.  Bogle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zero to one </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Peter Thiel</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The monk who sold his Ferrari </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Robin Sharma</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Security Analysis </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Seven habits of highly effective teens </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sean Covey</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Power of positive thinking </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dr Norman Vincent Peale</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Art of the deal </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Donald J Trump</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The virgin way </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Richard Branson</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mastery </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Robert Greene</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The portable Thomas Hardy. 1985. Penguin </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Julian Moynahan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You can heal your life </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Louise L Hay</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Power of now </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Eckhart Tolle</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Think and grow rich </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Napoleon Hill</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Road less traveled </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> M Scott Peck</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4 hour workweek </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Timothy Ferriss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Magic of thinking big </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> David Schwartz</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> To kill a mockingbird </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Harper Lee</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lord of the flies </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> William Golding</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Purpose driven life </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rick Warren</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> New psycho cybernetics </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Maxwell Maltz</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Handmaid's tale </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Margaret Atwood</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Success principles </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jack Canfield</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 48 laws of power </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Last lecture </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Randy Pausch; Jeffrey Zaslow</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A new Earth </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I'm okay.  You're okay </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thomas A Harris -  MD</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Science of getting rich </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Wallace D Wattles</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The One Thing </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gary Keller</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> War of art </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Steven Pressfield</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Way of the peaceful warrior </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dan Millman</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Crucial conversations </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kerry Patterson, 2002</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Six pillars of self-esteem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nathaniel Branden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diary of a young girl </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Anne Frank</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lucifer effect </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Philip Zimbardo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mission to Mars </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Buzz Aldrin;  pub: 2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Secret </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rhonda Byrne </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Art of seduction </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Moonwalking with Einstein </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Joshua Foer</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> First things first </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Stephen R Covey</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> How to develop a perfect memory </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dominic O Brien</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lessons in excellence (The Indian Story) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sumantra Ghoshal; Gita Piramal; Raghav Bahl </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Managing Radical Change </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chris A Bartlett</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Managing Radical Change </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Chris A Bartlett</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Law of success </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Self-help</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Author: Unknown</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Seat of the soul </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gary Zukav</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Celestine Prophecy -  An Adventure </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> James Redfield</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ramayana </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Valmiki Muni</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mahabharat </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Maharishi Vedavyasa</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Life of Siddharth Gautam </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hermann Hesse</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Unfathomable world of amazing numbers </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Wallace Jacob</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Essays of Warren Buffett -  Lessons for corporate America </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Warren Buffett and Lawrence A. Cunningham</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jonathan Livingston Seagull -  a story </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Richard Bach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kite runner </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Khaled Hosseini</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Freedom is not free </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Bill Gates Way </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Des Dearlove</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Idgah (short story) – </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">https://en.wikisource.org/wiki/Idgah</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> Munshi Premchand </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Getting to Yes </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Roger Fisher; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> William Ury</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> Teach yourself to think </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Edward de Bono</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Getting to yes with yourself </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> William Ury</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Negotiation </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Harvard Business Essentials</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How to make $1000 a minute? Negotiating your salary.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jack Chapman</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Audacity of hope </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Barack Obama</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dreams from my father </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> How to talk to anyone </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Leil Lowndes</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Outliers </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> David and Goliath </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> What the dog saw </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sense and Sensibility </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jane Austin</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Stay hungry. S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">tay foolish </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rashmi Bansal</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ten Day MBA </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Steven Silbiger</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Public Speaking Lessons From TED Talks </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Diane Windingland</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 50 activities for emotional intelligence (2000; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> HRD Press) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Adele B. Lynn; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Eileen Klockars</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> Walter Isaacson</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Managing psychological factors in information systems work </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Eugene Kaluzniacky</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Screw it. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Let's do it </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> The ONE thing </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Emotionally Intelligent Workplace_How to Select For</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Measure and Improve Emotional Intelligence in Individuals; Groups &amp; Organizations </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Cherniss C; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Daniel Goleman</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Zero to one</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peter Thiel</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 50th Law </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Elon Musk </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ashlee Vance</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Body Language Secrets (A Guide During Courtship &amp; Dating (1997))</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Don Steele </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dale Carnegie</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Negotiation Book </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Steve Gates</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7 principles for making marriage work </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> John Gottman (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">PhD)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> You are a badass </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jen Sincero # Summarized</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Crucial conversations (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2002)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kerry Patterson</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Teach your child how to think </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A Game of Thrones (from: A Song of Ice and Fire) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> George R. R. Martin</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A Clash of Kings (from: A Song of Ice and Fire) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A Storm of Swords (from: A Song of Ice and Fire) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A Feast for Crows (from: A Song of Ice and Fire) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A Dance with Dragons (from: A Song of Ice and Fire) </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> John Gottman -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> PhD</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> Emotional Intelligence (Why it matters more than IQ) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Daniel Goleman</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Staggering Forward - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Narendra Modi and India’s Global Ambition (2018) </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bharat Karnad </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Emotional Intelligence (Why it matters more than IQ) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> One flew over the cuckoo's nest (fiction) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ken Kesey</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Secrets to winning at office politics (2005) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Marie GMcIntyre</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Pride and prejudice </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (fiction, 1813)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Jane Austen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Harry Potter and the chamber of secrets </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> JK Rowling</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Harry Potter and the prisoner of Azkaban </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Harry Potter and the goblet of fire </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Harry Potter and the order of the phoenix </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Harry Potter and the deathly hallows </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Life of Pi (Canadian philosophical novel; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 2001) </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> Yann Martel</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Alan Turing: The Enigma (The Imitation Game; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 2014) </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> Andrew Hodges</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> I'm okay - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> you're okay (2004 ed) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> The god of small things </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(1997)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> Arundhati Roy </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Getting to Yes (Negotiating agreement without giving in) – </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(1991, 2e)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Roger Fisher; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> William Ury </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Never Split the Difference - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Negotiating As If Your Life Depended On It (2016)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Chris Voss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Negotiation Genius </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Deepak Malhotra; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Max Bazerman</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Getting to yes with yourself </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(2015)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> William Ury </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Handmaid's tale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Margaret Atwood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Success principles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jack Canfield</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New psycho cybernetics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maxwell Maltz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You Can't Be Serious! Putting Humor to Work; 2001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michael Kerr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Getting Past No (1993)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">William Ury</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beyond Reason: Using Emotions as You Negotiate (2007)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daniel Shapiro and Roger Fisher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anxiety and Phobia Workbook (2015, 6e)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edmund J. Bourne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Martian (2011 science fiction novel)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andy Weir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My land and my people</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tenzin Gyatso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The book of joy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tenzin Gyatso and Desmond Tutu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Art of War</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sun Tzu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 Rules for Life</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jordan Peterson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Negotiating The Impossible (2016)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deepak Malhotra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Body Keeps The Score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bessel van red Kolk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thanks for the Feedback</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Douglas Stone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beyond Order. 12 More Rules for Life (2021)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jordan B. Peterson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joe Biden - The Life, the Run, and What Matters Now (2020)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evan Osnos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Presuasion. A Revolutionary Way to Influence and Persuade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Robert Cialdini</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Boy Who Was Raised as a Dog And Other Stories </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bruce Perry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The subtle art of not giving a fuck</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mark Manson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Negotiation (2018)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harvard Business Essentials</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HBR Guide to Emotional Intelligence </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harvard Business Review</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Top 200 secrets of success</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Difficult Conversations. How to Discuss What Matters Most (2010)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Douglas Stone, Bruce Patton, Sheila Heen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Man Who Mistook His Wife for a Hat And Other Clinical Tales - Harpercollins (1987)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oliver W. Sacks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My Little Epiphanies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aisha Chaudhary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bargaining for Advantage. Negotiation Strategies for Reasonable People (2006)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G. Richard Shell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-D Negotiation. Harvard Business School Press (2008)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">James K. Sebenius &amp; David A. Lax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rich dad poor dad </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Robert Kiyosaki</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Negotiating the Nonnegotiable. How to Resolve Your Most Emotionally Charged Conflicts (2016)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daniel Shapiro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maps of Meaning. The Architecture of Belief (1999) - Pg 260/283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Generative AI. A Non-Technical Introduction (Apress, 2023)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tom Taulli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Naked Statistics: Stripping the Dread from the Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charles Wheelan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zen Mind, Beginner's Mind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shunryu Suzuki</t>
+  </si>
+  <si>
     <t xml:space="preserve">Psychology of Money</t>
   </si>
   <si>
     <t xml:space="preserve">Morgan Housel</t>
   </si>
   <si>
-    <t xml:space="preserve">27 Nov 2023</t>
-  </si>
-  <si>
     <t xml:space="preserve">Think Like a Monk</t>
   </si>
   <si>
     <t xml:space="preserve">Jay Shetty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22 Dec 2023</t>
   </si>
 </sst>
 </file>
@@ -58,9 +1409,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="mm/dd/yy"/>
+    <numFmt numFmtId="165" formatCode="mmm\ d&quot;, &quot;yyyy"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -81,6 +1432,11 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -125,7 +1481,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -134,7 +1490,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -147,6 +1519,15 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -261,17 +1642,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:F195"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A170" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C191" activeCellId="0" sqref="C191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="21.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="4.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="46.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="39.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="13.9"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -284,39 +1666,2726 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="F1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="0"/>
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>43831</v>
+      </c>
+      <c r="F2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
-        <v>188</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="0" t="s">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3" t="n">
+        <v>43832</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="3" t="n">
+        <v>43833</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="3" t="n">
+        <v>43834</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="3" t="n">
+        <v>43835</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="3" t="n">
+        <v>43836</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="3" t="n">
+        <v>43837</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="3" t="n">
+        <v>43838</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="3" t="n">
+        <v>43839</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="3" t="n">
+        <v>43840</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="3" t="n">
+        <v>43841</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="3" t="n">
+        <v>43842</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="3" t="n">
+        <v>43843</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="3" t="n">
+        <v>43844</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="3" t="n">
+        <v>43845</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="3" t="n">
+        <v>43846</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="3" t="n">
+        <v>43847</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="3" t="n">
+        <v>43848</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="3" t="n">
+        <v>43849</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="3" t="n">
+        <v>43850</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="3" t="n">
+        <v>43851</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="3" t="n">
+        <v>43852</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="3" t="n">
+        <v>43853</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="3" t="n">
+        <v>43854</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="3" t="n">
+        <v>43855</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" s="3" t="n">
+        <v>43856</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" s="3" t="n">
+        <v>43857</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29" s="3" t="n">
+        <v>43858</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D30" s="3" t="n">
+        <v>43859</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D31" s="3" t="n">
+        <v>43860</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" s="3" t="n">
+        <v>43861</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D33" s="3" t="n">
+        <v>43862</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D34" s="3" t="n">
+        <v>43863</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D35" s="3" t="n">
+        <v>43864</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D36" s="3" t="n">
+        <v>43865</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D37" s="3" t="n">
+        <v>43866</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D38" s="3" t="n">
+        <v>43867</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D39" s="3" t="n">
+        <v>43868</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D40" s="3" t="n">
+        <v>43869</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D41" s="3" t="n">
+        <v>43870</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D42" s="3" t="n">
+        <v>43871</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D43" s="3" t="n">
+        <v>43872</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D44" s="3" t="n">
+        <v>43873</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D45" s="3" t="n">
+        <v>43874</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D46" s="3" t="n">
+        <v>43875</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D47" s="3" t="n">
+        <v>43876</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D48" s="3" t="n">
+        <v>43877</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D49" s="3" t="n">
+        <v>43878</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D50" s="3" t="n">
+        <v>43879</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D51" s="3" t="n">
+        <v>43880</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D52" s="3" t="n">
+        <v>43881</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D53" s="3" t="n">
+        <v>43882</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D54" s="3" t="n">
+        <v>43883</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D55" s="3" t="n">
+        <v>43884</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D56" s="3" t="n">
+        <v>43885</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D57" s="3" t="n">
+        <v>43886</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D58" s="3" t="n">
+        <v>43887</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D59" s="3" t="n">
+        <v>43888</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D60" s="3" t="n">
+        <v>43889</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D61" s="3" t="n">
+        <v>43890</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D62" s="3" t="n">
+        <v>43891</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D63" s="3" t="n">
+        <v>43892</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D64" s="3" t="n">
+        <v>43893</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D65" s="3" t="n">
+        <v>43894</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D66" s="3" t="n">
+        <v>43895</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D67" s="3" t="n">
+        <v>43896</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D68" s="3" t="n">
+        <v>43897</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D69" s="3" t="n">
+        <v>43898</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D70" s="3" t="n">
+        <v>43899</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D71" s="3" t="n">
+        <v>43900</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D72" s="3" t="n">
+        <v>43901</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D73" s="3" t="n">
+        <v>43902</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D74" s="3" t="n">
+        <v>43903</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D75" s="3" t="n">
+        <v>43904</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D76" s="3" t="n">
+        <v>43905</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D77" s="3" t="n">
+        <v>43906</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D78" s="3" t="n">
+        <v>43907</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D79" s="3" t="n">
+        <v>43908</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D80" s="3" t="n">
+        <v>43908</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D81" s="3" t="n">
+        <v>43909</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D82" s="3" t="n">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D83" s="3" t="n">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D84" s="3" t="n">
+        <v>43912</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D85" s="3" t="n">
+        <v>43913</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D86" s="3" t="n">
+        <v>43914</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D87" s="3" t="n">
+        <v>43915</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D88" s="3" t="n">
+        <v>43916</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D89" s="3" t="n">
+        <v>43917</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D90" s="3" t="n">
+        <v>43918</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D91" s="3" t="n">
+        <v>43919</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D92" s="3" t="n">
+        <v>43920</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="C93" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="D93" s="3" t="n">
+        <v>43921</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="C94" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="D94" s="3" t="n">
+        <v>43922</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="C95" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="D95" s="3" t="n">
+        <v>43923</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="C96" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="D96" s="3" t="n">
+        <v>43924</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="C97" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="D97" s="3" t="n">
+        <v>43925</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="C98" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="D98" s="3" t="n">
+        <v>43926</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="C99" s="0" t="s">
         <v>189</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>9</v>
+      <c r="D99" s="3" t="n">
+        <v>43927</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="C100" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="D100" s="3" t="n">
+        <v>43928</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="C101" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="D101" s="3" t="n">
+        <v>43929</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="C102" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="D102" s="3" t="n">
+        <v>43930</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="C103" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="D103" s="3" t="n">
+        <v>43931</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="C104" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="D104" s="3" t="n">
+        <v>43932</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="C105" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="D105" s="3" t="n">
+        <v>43933</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="C106" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="D106" s="3" t="n">
+        <v>43934</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="C107" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="D107" s="3" t="n">
+        <v>43935</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B108" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="C108" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="D108" s="3" t="n">
+        <v>43936</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B109" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="C109" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="D109" s="3" t="n">
+        <v>43937</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B110" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="C110" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="D110" s="3" t="n">
+        <v>43938</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B111" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="C111" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="D111" s="3" t="n">
+        <v>43939</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B112" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C112" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="D112" s="3" t="n">
+        <v>43940</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B113" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C113" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="D113" s="3" t="n">
+        <v>43941</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B114" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="C114" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="D114" s="3" t="n">
+        <v>43942</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B115" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="C115" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="D115" s="3" t="n">
+        <v>43943</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B116" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="C116" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="D116" s="3" t="n">
+        <v>43944</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B117" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="C117" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="D117" s="3" t="n">
+        <v>43945</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B118" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="C118" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="D118" s="3" t="n">
+        <v>43946</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B119" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C119" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="D119" s="3" t="n">
+        <v>43947</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B120" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="C120" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="D120" s="3" t="n">
+        <v>43948</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B121" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="C121" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="D121" s="3" t="n">
+        <v>43949</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B122" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="C122" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="D122" s="3" t="n">
+        <v>43950</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B123" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="C123" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="D123" s="3" t="n">
+        <v>43951</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B124" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C124" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="D124" s="3" t="n">
+        <v>43952</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B125" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="C125" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="D125" s="3" t="n">
+        <v>43953</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B126" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="C126" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="D126" s="3" t="n">
+        <v>43954</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B127" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="C127" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="D127" s="3" t="n">
+        <v>43955</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B128" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="C128" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="D128" s="3" t="n">
+        <v>43956</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B129" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="C129" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="D129" s="3" t="n">
+        <v>43957</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B130" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="C130" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="D130" s="3" t="n">
+        <v>43958</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B131" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="C131" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="D131" s="3" t="n">
+        <v>43959</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B132" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="C132" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="D132" s="3" t="n">
+        <v>43960</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B133" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="C133" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="D133" s="3" t="n">
+        <v>43961</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B134" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="C134" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="D134" s="3" t="n">
+        <v>43962</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B135" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="C135" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="D135" s="3" t="n">
+        <v>43963</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B136" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="C136" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="D136" s="3" t="n">
+        <v>43964</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B137" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="C137" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="D137" s="3" t="n">
+        <v>43965</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B138" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="C138" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="D138" s="3" t="n">
+        <v>43966</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B139" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="C139" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="D139" s="3" t="n">
+        <v>43967</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B140" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="C140" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="D140" s="3" t="n">
+        <v>43968</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B141" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="C141" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="D141" s="3" t="n">
+        <v>43969</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B142" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="C142" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="D142" s="3" t="n">
+        <v>43970</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B143" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="C143" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="D143" s="3" t="n">
+        <v>43971</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B144" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="C144" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="D144" s="3" t="n">
+        <v>43972</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B145" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="C145" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="D145" s="3" t="n">
+        <v>43973</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B146" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="C146" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="D146" s="3" t="n">
+        <v>43974</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B147" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="C147" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="D147" s="3" t="n">
+        <v>43975</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B148" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="C148" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="D148" s="3" t="n">
+        <v>43976</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B149" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="C149" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="D149" s="3" t="n">
+        <v>43977</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B150" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="C150" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="D150" s="3" t="n">
+        <v>43978</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B151" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="C151" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="D151" s="3" t="n">
+        <v>43979</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B152" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="C152" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="D152" s="3" t="n">
+        <v>43980</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B153" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="C153" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="D153" s="3" t="n">
+        <v>43981</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B154" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="C154" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="D154" s="3" t="n">
+        <v>43982</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B155" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="C155" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="D155" s="3" t="n">
+        <v>43983</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B156" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="C156" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="D156" s="3" t="n">
+        <v>43984</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B157" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="C157" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="D157" s="3" t="n">
+        <v>43985</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B158" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="C158" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="D158" s="3" t="n">
+        <v>43986</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B159" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="C159" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="D159" s="3" t="n">
+        <v>43987</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B160" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="C160" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="D160" s="3" t="n">
+        <v>43988</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B161" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="C161" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="D161" s="3" t="n">
+        <v>43989</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B162" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="C162" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="D162" s="3" t="n">
+        <v>43990</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B163" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="C163" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="D163" s="3" t="n">
+        <v>43991</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B164" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="C164" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="D164" s="3" t="n">
+        <v>43992</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D165" s="2" t="n">
+        <v>44197</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="D166" s="2" t="n">
+        <v>44198</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D167" s="2" t="n">
+        <v>44199</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D168" s="2" t="n">
+        <v>44200</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D169" s="2" t="n">
+        <v>44201</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D170" s="2" t="n">
+        <v>44202</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="D171" s="2" t="n">
+        <v>44635</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="D172" s="2" t="n">
+        <v>44815</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="D173" s="2" t="n">
+        <v>44844</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D174" s="2" t="n">
+        <v>44920</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D175" s="2" t="n">
+        <v>44934</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D176" s="2" t="n">
+        <v>44935</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D177" s="6" t="n">
+        <v>44942</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D178" s="2" t="n">
+        <v>44963</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D179" s="2" t="n">
+        <v>44964</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D180" s="2" t="n">
+        <v>44965</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D181" s="2" t="n">
+        <v>44966</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D182" s="2" t="n">
+        <v>44967</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D183" s="2" t="n">
+        <v>44968</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="D184" s="2" t="n">
+        <v>44969</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="D185" s="6" t="n">
+        <v>44972</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D186" s="6" t="n">
+        <v>44973</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D187" s="2" t="n">
+        <v>44989</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="D188" s="2" t="n">
+        <v>44999</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="D189" s="2" t="n">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D190" s="2" t="n">
+        <v>45001</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="D191" s="2" t="n">
+        <v>45128</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D192" s="2" t="n">
+        <v>45187</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="D193" s="2" t="n">
+        <v>45235</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="D194" s="3" t="n">
+        <v>45257</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="D195" s="3" t="n">
+        <v>45282</v>
       </c>
     </row>
   </sheetData>

--- a/Books Closed.xlsx
+++ b/Books Closed.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="347">
   <si>
     <t xml:space="preserve">#</t>
   </si>
@@ -562,23 +562,7 @@
     <t xml:space="preserve"> Des Dearlove</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> Idgah (short story) – </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">https://en.wikisource.org/wiki/Idgah</t>
-    </r>
+    <t xml:space="preserve"> Idgah (short story) – https://en.wikisource.org/wiki/Idgah</t>
   </si>
   <si>
     <t xml:space="preserve"> Munshi Premchand </t>
@@ -587,23 +571,7 @@
     <t xml:space="preserve"> Getting to Yes </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> Roger Fisher; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> William Ury</t>
-    </r>
+    <t xml:space="preserve"> Roger Fisher;  William Ury</t>
   </si>
   <si>
     <t xml:space="preserve"> Teach yourself to think </t>
@@ -660,23 +628,7 @@
     <t xml:space="preserve"> Jane Austin</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> Stay hungry. S</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">tay foolish </t>
-    </r>
+    <t xml:space="preserve"> Stay hungry. Stay foolish </t>
   </si>
   <si>
     <t xml:space="preserve"> Rashmi Bansal</t>
@@ -694,42 +646,10 @@
     <t xml:space="preserve"> Diane Windingland</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> 50 activities for emotional intelligence (2000; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> HRD Press) </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> Adele B. Lynn; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Eileen Klockars</t>
-    </r>
+    <t xml:space="preserve"> 50 activities for emotional intelligence (2000;  HRD Press) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Adele B. Lynn;  Eileen Klockars</t>
   </si>
   <si>
     <t xml:space="preserve"> Walter Isaacson</t>
@@ -741,64 +661,16 @@
     <t xml:space="preserve"> Eugene Kaluzniacky</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> Screw it. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Let's do it </t>
-    </r>
+    <t xml:space="preserve"> Screw it.  Let's do it </t>
   </si>
   <si>
     <t xml:space="preserve"> The ONE thing </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> Emotionally Intelligent Workplace_How to Select For</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Measure and Improve Emotional Intelligence in Individuals; Groups &amp; Organizations </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> Cherniss C; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Daniel Goleman</t>
-    </r>
+    <t xml:space="preserve"> Emotionally Intelligent Workplace_How to Select For Measure and Improve Emotional Intelligence in Individuals; Groups &amp; Organizations </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cherniss C;  Daniel Goleman</t>
   </si>
   <si>
     <t xml:space="preserve">Zero to one</t>
@@ -834,23 +706,7 @@
     <t xml:space="preserve"> 7 principles for making marriage work </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> John Gottman (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">PhD)</t>
-    </r>
+    <t xml:space="preserve"> John Gottman (PhD)</t>
   </si>
   <si>
     <t xml:space="preserve"> You are a badass </t>
@@ -859,23 +715,7 @@
     <t xml:space="preserve"> Jen Sincero # Summarized</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> Crucial conversations (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">2002)</t>
-    </r>
+    <t xml:space="preserve"> Crucial conversations (2002)</t>
   </si>
   <si>
     <t xml:space="preserve"> Kerry Patterson</t>
@@ -902,23 +742,7 @@
     <t xml:space="preserve"> A Dance with Dragons (from: A Song of Ice and Fire) </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> John Gottman -</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> PhD</t>
-    </r>
+    <t xml:space="preserve"> John Gottman - PhD</t>
   </si>
   <si>
     <t xml:space="preserve"> Emotional Intelligence (Why it matters more than IQ) </t>
@@ -927,23 +751,7 @@
     <t xml:space="preserve"> Daniel Goleman</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> Staggering Forward - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Narendra Modi and India’s Global Ambition (2018) </t>
-    </r>
+    <t xml:space="preserve"> Staggering Forward -  Narendra Modi and India’s Global Ambition (2018) </t>
   </si>
   <si>
     <t xml:space="preserve"> Bharat Karnad </t>
@@ -964,23 +772,7 @@
     <t xml:space="preserve"> Marie GMcIntyre</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> Pride and prejudice </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (fiction, 1813)</t>
-    </r>
+    <t xml:space="preserve"> Pride and prejudice  (fiction, 1813)</t>
   </si>
   <si>
     <t xml:space="preserve">Jane Austen</t>
@@ -1004,146 +796,34 @@
     <t xml:space="preserve"> Harry Potter and the deathly hallows </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> Life of Pi (Canadian philosophical novel; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 2001) </t>
-    </r>
+    <t xml:space="preserve"> Life of Pi (Canadian philosophical novel;  2001) </t>
   </si>
   <si>
     <t xml:space="preserve"> Yann Martel</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> Alan Turing: The Enigma (The Imitation Game; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 2014) </t>
-    </r>
+    <t xml:space="preserve"> Alan Turing: The Enigma (The Imitation Game;  2014) </t>
   </si>
   <si>
     <t xml:space="preserve"> Andrew Hodges</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> I'm okay - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> you're okay (2004 ed) </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> The god of small things </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">(1997)</t>
-    </r>
+    <t xml:space="preserve"> I'm okay -  you're okay (2004 ed) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The god of small things (1997)</t>
   </si>
   <si>
     <t xml:space="preserve"> Arundhati Roy </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Getting to Yes (Negotiating agreement without giving in) – </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">(1991, 2e)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> Roger Fisher; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> William Ury </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> Never Split the Difference - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Negotiating As If Your Life Depended On It (2016)</t>
-    </r>
+    <t xml:space="preserve">Getting to Yes (Negotiating agreement without giving in) – (1991, 2e)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Roger Fisher;  William Ury </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Never Split the Difference -  Negotiating As If Your Life Depended On It (2016)</t>
   </si>
   <si>
     <t xml:space="preserve">Chris Voss</t>
@@ -1152,42 +832,10 @@
     <t xml:space="preserve"> Negotiation Genius </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> Deepak Malhotra; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Max Bazerman</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> Getting to yes with yourself </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">(2015)</t>
-    </r>
+    <t xml:space="preserve"> Deepak Malhotra;  Max Bazerman</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Getting to yes with yourself (2015)</t>
   </si>
   <si>
     <t xml:space="preserve"> William Ury </t>
@@ -1401,6 +1049,18 @@
   </si>
   <si>
     <t xml:space="preserve">Jay Shetty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Why we meditate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daniel Goleman &amp; Tsoknyi Rinpoche</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emotional Intelligence 2.0 (2009)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Travis Bradberry &amp; Jean Greaves</t>
   </si>
 </sst>
 </file>
@@ -1411,7 +1071,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="mmm\ d&quot;, &quot;yyyy"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1432,11 +1092,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1481,7 +1136,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1490,7 +1145,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1499,14 +1154,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1519,15 +1166,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
 </styleSheet>
 </file>
 
@@ -1642,10 +1280,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F195"/>
+  <dimension ref="A1:F197"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A170" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C191" activeCellId="0" sqref="C191"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A177" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B198" activeCellId="0" sqref="B198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2950,10 +2588,10 @@
       <c r="A93" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="B93" s="0" t="s">
+      <c r="B93" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C93" s="0" t="s">
+      <c r="C93" s="1" t="s">
         <v>48</v>
       </c>
       <c r="D93" s="3" t="n">
@@ -2964,10 +2602,10 @@
       <c r="A94" s="1" t="n">
         <v>93</v>
       </c>
-      <c r="B94" s="0" t="s">
+      <c r="B94" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="C94" s="0" t="s">
+      <c r="C94" s="1" t="s">
         <v>179</v>
       </c>
       <c r="D94" s="3" t="n">
@@ -2978,10 +2616,10 @@
       <c r="A95" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="B95" s="0" t="s">
+      <c r="B95" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C95" s="0" t="s">
+      <c r="C95" s="1" t="s">
         <v>181</v>
       </c>
       <c r="D95" s="3" t="n">
@@ -2992,10 +2630,10 @@
       <c r="A96" s="1" t="n">
         <v>95</v>
       </c>
-      <c r="B96" s="0" t="s">
+      <c r="B96" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="C96" s="0" t="s">
+      <c r="C96" s="1" t="s">
         <v>183</v>
       </c>
       <c r="D96" s="3" t="n">
@@ -3006,10 +2644,10 @@
       <c r="A97" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="B97" s="0" t="s">
+      <c r="B97" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C97" s="0" t="s">
+      <c r="C97" s="1" t="s">
         <v>185</v>
       </c>
       <c r="D97" s="3" t="n">
@@ -3020,10 +2658,10 @@
       <c r="A98" s="1" t="n">
         <v>97</v>
       </c>
-      <c r="B98" s="0" t="s">
+      <c r="B98" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C98" s="0" t="s">
+      <c r="C98" s="1" t="s">
         <v>187</v>
       </c>
       <c r="D98" s="3" t="n">
@@ -3034,10 +2672,10 @@
       <c r="A99" s="1" t="n">
         <v>98</v>
       </c>
-      <c r="B99" s="0" t="s">
+      <c r="B99" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="C99" s="0" t="s">
+      <c r="C99" s="1" t="s">
         <v>189</v>
       </c>
       <c r="D99" s="3" t="n">
@@ -3048,10 +2686,10 @@
       <c r="A100" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="B100" s="0" t="s">
+      <c r="B100" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C100" s="0" t="s">
+      <c r="C100" s="1" t="s">
         <v>191</v>
       </c>
       <c r="D100" s="3" t="n">
@@ -3062,10 +2700,10 @@
       <c r="A101" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="B101" s="0" t="s">
+      <c r="B101" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="C101" s="0" t="s">
+      <c r="C101" s="1" t="s">
         <v>193</v>
       </c>
       <c r="D101" s="3" t="n">
@@ -3076,10 +2714,10 @@
       <c r="A102" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="B102" s="0" t="s">
+      <c r="B102" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C102" s="0" t="s">
+      <c r="C102" s="1" t="s">
         <v>193</v>
       </c>
       <c r="D102" s="3" t="n">
@@ -3090,10 +2728,10 @@
       <c r="A103" s="1" t="n">
         <v>102</v>
       </c>
-      <c r="B103" s="0" t="s">
+      <c r="B103" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="C103" s="0" t="s">
+      <c r="C103" s="1" t="s">
         <v>196</v>
       </c>
       <c r="D103" s="3" t="n">
@@ -3104,10 +2742,10 @@
       <c r="A104" s="1" t="n">
         <v>103</v>
       </c>
-      <c r="B104" s="0" t="s">
+      <c r="B104" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C104" s="0" t="s">
+      <c r="C104" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D104" s="3" t="n">
@@ -3118,10 +2756,10 @@
       <c r="A105" s="1" t="n">
         <v>104</v>
       </c>
-      <c r="B105" s="0" t="s">
+      <c r="B105" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C105" s="0" t="s">
+      <c r="C105" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D105" s="3" t="n">
@@ -3132,10 +2770,10 @@
       <c r="A106" s="1" t="n">
         <v>105</v>
       </c>
-      <c r="B106" s="0" t="s">
+      <c r="B106" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C106" s="0" t="s">
+      <c r="C106" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D106" s="3" t="n">
@@ -3146,10 +2784,10 @@
       <c r="A107" s="1" t="n">
         <v>106</v>
       </c>
-      <c r="B107" s="0" t="s">
+      <c r="B107" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C107" s="0" t="s">
+      <c r="C107" s="1" t="s">
         <v>201</v>
       </c>
       <c r="D107" s="3" t="n">
@@ -3160,10 +2798,10 @@
       <c r="A108" s="1" t="n">
         <v>107</v>
       </c>
-      <c r="B108" s="0" t="s">
+      <c r="B108" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C108" s="0" t="s">
+      <c r="C108" s="1" t="s">
         <v>203</v>
       </c>
       <c r="D108" s="3" t="n">
@@ -3174,10 +2812,10 @@
       <c r="A109" s="1" t="n">
         <v>108</v>
       </c>
-      <c r="B109" s="0" t="s">
+      <c r="B109" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="C109" s="0" t="s">
+      <c r="C109" s="1" t="s">
         <v>205</v>
       </c>
       <c r="D109" s="3" t="n">
@@ -3188,10 +2826,10 @@
       <c r="A110" s="1" t="n">
         <v>109</v>
       </c>
-      <c r="B110" s="0" t="s">
+      <c r="B110" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="C110" s="0" t="s">
+      <c r="C110" s="1" t="s">
         <v>207</v>
       </c>
       <c r="D110" s="3" t="n">
@@ -3202,10 +2840,10 @@
       <c r="A111" s="1" t="n">
         <v>110</v>
       </c>
-      <c r="B111" s="0" t="s">
+      <c r="B111" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="C111" s="0" t="s">
+      <c r="C111" s="1" t="s">
         <v>209</v>
       </c>
       <c r="D111" s="3" t="n">
@@ -3216,10 +2854,10 @@
       <c r="A112" s="1" t="n">
         <v>111</v>
       </c>
-      <c r="B112" s="0" t="s">
+      <c r="B112" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C112" s="0" t="s">
+      <c r="C112" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D112" s="3" t="n">
@@ -3230,10 +2868,10 @@
       <c r="A113" s="1" t="n">
         <v>112</v>
       </c>
-      <c r="B113" s="0" t="s">
+      <c r="B113" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C113" s="0" t="s">
+      <c r="C113" s="1" t="s">
         <v>210</v>
       </c>
       <c r="D113" s="3" t="n">
@@ -3244,10 +2882,10 @@
       <c r="A114" s="1" t="n">
         <v>113</v>
       </c>
-      <c r="B114" s="0" t="s">
+      <c r="B114" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C114" s="0" t="s">
+      <c r="C114" s="1" t="s">
         <v>212</v>
       </c>
       <c r="D114" s="3" t="n">
@@ -3258,10 +2896,10 @@
       <c r="A115" s="1" t="n">
         <v>114</v>
       </c>
-      <c r="B115" s="0" t="s">
+      <c r="B115" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C115" s="0" t="s">
+      <c r="C115" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D115" s="3" t="n">
@@ -3272,10 +2910,10 @@
       <c r="A116" s="1" t="n">
         <v>115</v>
       </c>
-      <c r="B116" s="0" t="s">
+      <c r="B116" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="C116" s="0" t="s">
+      <c r="C116" s="1" t="s">
         <v>126</v>
       </c>
       <c r="D116" s="3" t="n">
@@ -3286,10 +2924,10 @@
       <c r="A117" s="1" t="n">
         <v>116</v>
       </c>
-      <c r="B117" s="0" t="s">
+      <c r="B117" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C117" s="0" t="s">
+      <c r="C117" s="1" t="s">
         <v>75</v>
       </c>
       <c r="D117" s="3" t="n">
@@ -3300,10 +2938,10 @@
       <c r="A118" s="1" t="n">
         <v>117</v>
       </c>
-      <c r="B118" s="0" t="s">
+      <c r="B118" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C118" s="0" t="s">
+      <c r="C118" s="1" t="s">
         <v>216</v>
       </c>
       <c r="D118" s="3" t="n">
@@ -3314,10 +2952,10 @@
       <c r="A119" s="1" t="n">
         <v>118</v>
       </c>
-      <c r="B119" s="0" t="s">
+      <c r="B119" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C119" s="0" t="s">
+      <c r="C119" s="1" t="s">
         <v>218</v>
       </c>
       <c r="D119" s="3" t="n">
@@ -3328,10 +2966,10 @@
       <c r="A120" s="1" t="n">
         <v>119</v>
       </c>
-      <c r="B120" s="0" t="s">
+      <c r="B120" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="C120" s="0" t="s">
+      <c r="C120" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D120" s="3" t="n">
@@ -3342,10 +2980,10 @@
       <c r="A121" s="1" t="n">
         <v>120</v>
       </c>
-      <c r="B121" s="0" t="s">
+      <c r="B121" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="C121" s="0" t="s">
+      <c r="C121" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D121" s="3" t="n">
@@ -3356,10 +2994,10 @@
       <c r="A122" s="1" t="n">
         <v>121</v>
       </c>
-      <c r="B122" s="0" t="s">
+      <c r="B122" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C122" s="0" t="s">
+      <c r="C122" s="1" t="s">
         <v>221</v>
       </c>
       <c r="D122" s="3" t="n">
@@ -3370,10 +3008,10 @@
       <c r="A123" s="1" t="n">
         <v>122</v>
       </c>
-      <c r="B123" s="0" t="s">
+      <c r="B123" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="C123" s="0" t="s">
+      <c r="C123" s="1" t="s">
         <v>223</v>
       </c>
       <c r="D123" s="3" t="n">
@@ -3384,10 +3022,10 @@
       <c r="A124" s="1" t="n">
         <v>123</v>
       </c>
-      <c r="B124" s="0" t="s">
+      <c r="B124" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C124" s="0" t="s">
+      <c r="C124" s="1" t="s">
         <v>224</v>
       </c>
       <c r="D124" s="3" t="n">
@@ -3398,10 +3036,10 @@
       <c r="A125" s="1" t="n">
         <v>124</v>
       </c>
-      <c r="B125" s="0" t="s">
+      <c r="B125" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C125" s="0" t="s">
+      <c r="C125" s="1" t="s">
         <v>221</v>
       </c>
       <c r="D125" s="3" t="n">
@@ -3412,10 +3050,10 @@
       <c r="A126" s="1" t="n">
         <v>125</v>
       </c>
-      <c r="B126" s="0" t="s">
+      <c r="B126" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="C126" s="0" t="s">
+      <c r="C126" s="1" t="s">
         <v>226</v>
       </c>
       <c r="D126" s="3" t="n">
@@ -3426,10 +3064,10 @@
       <c r="A127" s="1" t="n">
         <v>126</v>
       </c>
-      <c r="B127" s="0" t="s">
+      <c r="B127" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="C127" s="0" t="s">
+      <c r="C127" s="1" t="s">
         <v>226</v>
       </c>
       <c r="D127" s="3" t="n">
@@ -3440,10 +3078,10 @@
       <c r="A128" s="1" t="n">
         <v>127</v>
       </c>
-      <c r="B128" s="0" t="s">
+      <c r="B128" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="C128" s="0" t="s">
+      <c r="C128" s="1" t="s">
         <v>228</v>
       </c>
       <c r="D128" s="3" t="n">
@@ -3454,10 +3092,10 @@
       <c r="A129" s="1" t="n">
         <v>128</v>
       </c>
-      <c r="B129" s="0" t="s">
+      <c r="B129" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="C129" s="0" t="s">
+      <c r="C129" s="1" t="s">
         <v>230</v>
       </c>
       <c r="D129" s="3" t="n">
@@ -3468,10 +3106,10 @@
       <c r="A130" s="1" t="n">
         <v>129</v>
       </c>
-      <c r="B130" s="0" t="s">
+      <c r="B130" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C130" s="0" t="s">
+      <c r="C130" s="1" t="s">
         <v>232</v>
       </c>
       <c r="D130" s="3" t="n">
@@ -3482,10 +3120,10 @@
       <c r="A131" s="1" t="n">
         <v>130</v>
       </c>
-      <c r="B131" s="0" t="s">
+      <c r="B131" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="C131" s="0" t="s">
+      <c r="C131" s="1" t="s">
         <v>185</v>
       </c>
       <c r="D131" s="3" t="n">
@@ -3496,10 +3134,10 @@
       <c r="A132" s="1" t="n">
         <v>131</v>
       </c>
-      <c r="B132" s="0" t="s">
+      <c r="B132" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="C132" s="0" t="s">
+      <c r="C132" s="1" t="s">
         <v>185</v>
       </c>
       <c r="D132" s="3" t="n">
@@ -3510,10 +3148,10 @@
       <c r="A133" s="1" t="n">
         <v>132</v>
       </c>
-      <c r="B133" s="0" t="s">
+      <c r="B133" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="C133" s="0" t="s">
+      <c r="C133" s="1" t="s">
         <v>235</v>
       </c>
       <c r="D133" s="3" t="n">
@@ -3524,10 +3162,10 @@
       <c r="A134" s="1" t="n">
         <v>133</v>
       </c>
-      <c r="B134" s="0" t="s">
+      <c r="B134" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C134" s="0" t="s">
+      <c r="C134" s="1" t="s">
         <v>235</v>
       </c>
       <c r="D134" s="3" t="n">
@@ -3538,10 +3176,10 @@
       <c r="A135" s="1" t="n">
         <v>134</v>
       </c>
-      <c r="B135" s="0" t="s">
+      <c r="B135" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="C135" s="0" t="s">
+      <c r="C135" s="1" t="s">
         <v>235</v>
       </c>
       <c r="D135" s="3" t="n">
@@ -3552,10 +3190,10 @@
       <c r="A136" s="1" t="n">
         <v>135</v>
       </c>
-      <c r="B136" s="0" t="s">
+      <c r="B136" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="C136" s="0" t="s">
+      <c r="C136" s="1" t="s">
         <v>235</v>
       </c>
       <c r="D136" s="3" t="n">
@@ -3566,10 +3204,10 @@
       <c r="A137" s="1" t="n">
         <v>136</v>
       </c>
-      <c r="B137" s="0" t="s">
+      <c r="B137" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="C137" s="0" t="s">
+      <c r="C137" s="1" t="s">
         <v>235</v>
       </c>
       <c r="D137" s="3" t="n">
@@ -3580,10 +3218,10 @@
       <c r="A138" s="1" t="n">
         <v>137</v>
       </c>
-      <c r="B138" s="0" t="s">
+      <c r="B138" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="C138" s="0" t="s">
+      <c r="C138" s="1" t="s">
         <v>240</v>
       </c>
       <c r="D138" s="3" t="n">
@@ -3594,10 +3232,10 @@
       <c r="A139" s="1" t="n">
         <v>138</v>
       </c>
-      <c r="B139" s="0" t="s">
+      <c r="B139" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="C139" s="0" t="s">
+      <c r="C139" s="1" t="s">
         <v>242</v>
       </c>
       <c r="D139" s="3" t="n">
@@ -3608,10 +3246,10 @@
       <c r="A140" s="1" t="n">
         <v>139</v>
       </c>
-      <c r="B140" s="0" t="s">
+      <c r="B140" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="C140" s="0" t="s">
+      <c r="C140" s="1" t="s">
         <v>244</v>
       </c>
       <c r="D140" s="3" t="n">
@@ -3622,10 +3260,10 @@
       <c r="A141" s="1" t="n">
         <v>140</v>
       </c>
-      <c r="B141" s="0" t="s">
+      <c r="B141" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="C141" s="0" t="s">
+      <c r="C141" s="1" t="s">
         <v>242</v>
       </c>
       <c r="D141" s="3" t="n">
@@ -3636,10 +3274,10 @@
       <c r="A142" s="1" t="n">
         <v>141</v>
       </c>
-      <c r="B142" s="0" t="s">
+      <c r="B142" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="C142" s="0" t="s">
+      <c r="C142" s="1" t="s">
         <v>247</v>
       </c>
       <c r="D142" s="3" t="n">
@@ -3650,10 +3288,10 @@
       <c r="A143" s="1" t="n">
         <v>142</v>
       </c>
-      <c r="B143" s="0" t="s">
+      <c r="B143" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="C143" s="0" t="s">
+      <c r="C143" s="1" t="s">
         <v>249</v>
       </c>
       <c r="D143" s="3" t="n">
@@ -3664,10 +3302,10 @@
       <c r="A144" s="1" t="n">
         <v>143</v>
       </c>
-      <c r="B144" s="0" t="s">
+      <c r="B144" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="C144" s="0" t="s">
+      <c r="C144" s="1" t="s">
         <v>251</v>
       </c>
       <c r="D144" s="3" t="n">
@@ -3678,10 +3316,10 @@
       <c r="A145" s="1" t="n">
         <v>144</v>
       </c>
-      <c r="B145" s="0" t="s">
+      <c r="B145" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="C145" s="0" t="s">
+      <c r="C145" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D145" s="3" t="n">
@@ -3692,10 +3330,10 @@
       <c r="A146" s="1" t="n">
         <v>145</v>
       </c>
-      <c r="B146" s="0" t="s">
+      <c r="B146" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="C146" s="0" t="s">
+      <c r="C146" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D146" s="3" t="n">
@@ -3706,10 +3344,10 @@
       <c r="A147" s="1" t="n">
         <v>146</v>
       </c>
-      <c r="B147" s="0" t="s">
+      <c r="B147" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="C147" s="0" t="s">
+      <c r="C147" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D147" s="3" t="n">
@@ -3720,10 +3358,10 @@
       <c r="A148" s="1" t="n">
         <v>147</v>
       </c>
-      <c r="B148" s="0" t="s">
+      <c r="B148" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="C148" s="0" t="s">
+      <c r="C148" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D148" s="3" t="n">
@@ -3734,10 +3372,10 @@
       <c r="A149" s="1" t="n">
         <v>148</v>
       </c>
-      <c r="B149" s="0" t="s">
+      <c r="B149" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="C149" s="0" t="s">
+      <c r="C149" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D149" s="3" t="n">
@@ -3748,10 +3386,10 @@
       <c r="A150" s="1" t="n">
         <v>149</v>
       </c>
-      <c r="B150" s="0" t="s">
+      <c r="B150" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="C150" s="0" t="s">
+      <c r="C150" s="1" t="s">
         <v>259</v>
       </c>
       <c r="D150" s="3" t="n">
@@ -3762,10 +3400,10 @@
       <c r="A151" s="1" t="n">
         <v>150</v>
       </c>
-      <c r="B151" s="0" t="s">
+      <c r="B151" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="C151" s="0" t="s">
+      <c r="C151" s="1" t="s">
         <v>261</v>
       </c>
       <c r="D151" s="3" t="n">
@@ -3776,10 +3414,10 @@
       <c r="A152" s="1" t="n">
         <v>151</v>
       </c>
-      <c r="B152" s="0" t="s">
+      <c r="B152" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="C152" s="0" t="s">
+      <c r="C152" s="1" t="s">
         <v>122</v>
       </c>
       <c r="D152" s="3" t="n">
@@ -3790,10 +3428,10 @@
       <c r="A153" s="1" t="n">
         <v>152</v>
       </c>
-      <c r="B153" s="0" t="s">
+      <c r="B153" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="C153" s="0" t="s">
+      <c r="C153" s="1" t="s">
         <v>264</v>
       </c>
       <c r="D153" s="3" t="n">
@@ -3804,10 +3442,10 @@
       <c r="A154" s="1" t="n">
         <v>153</v>
       </c>
-      <c r="B154" s="0" t="s">
+      <c r="B154" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="C154" s="0" t="s">
+      <c r="C154" s="1" t="s">
         <v>266</v>
       </c>
       <c r="D154" s="3" t="n">
@@ -3818,10 +3456,10 @@
       <c r="A155" s="1" t="n">
         <v>154</v>
       </c>
-      <c r="B155" s="0" t="s">
+      <c r="B155" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="C155" s="5" t="s">
+      <c r="C155" s="4" t="s">
         <v>268</v>
       </c>
       <c r="D155" s="3" t="n">
@@ -3832,10 +3470,10 @@
       <c r="A156" s="1" t="n">
         <v>155</v>
       </c>
-      <c r="B156" s="0" t="s">
+      <c r="B156" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="C156" s="0" t="s">
+      <c r="C156" s="1" t="s">
         <v>196</v>
       </c>
       <c r="D156" s="3" t="n">
@@ -3846,10 +3484,10 @@
       <c r="A157" s="1" t="n">
         <v>156</v>
       </c>
-      <c r="B157" s="0" t="s">
+      <c r="B157" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="C157" s="0" t="s">
+      <c r="C157" s="1" t="s">
         <v>270</v>
       </c>
       <c r="D157" s="3" t="n">
@@ -3860,10 +3498,10 @@
       <c r="A158" s="1" t="n">
         <v>157</v>
       </c>
-      <c r="B158" s="0" t="s">
+      <c r="B158" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="C158" s="5" t="s">
+      <c r="C158" s="4" t="s">
         <v>268</v>
       </c>
       <c r="D158" s="3" t="n">
@@ -3874,10 +3512,10 @@
       <c r="A159" s="1" t="n">
         <v>158</v>
       </c>
-      <c r="B159" s="0" t="s">
+      <c r="B159" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="C159" s="0" t="s">
+      <c r="C159" s="1" t="s">
         <v>272</v>
       </c>
       <c r="D159" s="3" t="n">
@@ -3888,10 +3526,10 @@
       <c r="A160" s="1" t="n">
         <v>159</v>
       </c>
-      <c r="B160" s="0" t="s">
+      <c r="B160" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="C160" s="0" t="s">
+      <c r="C160" s="1" t="s">
         <v>274</v>
       </c>
       <c r="D160" s="3" t="n">
@@ -3902,10 +3540,10 @@
       <c r="A161" s="1" t="n">
         <v>160</v>
       </c>
-      <c r="B161" s="0" t="s">
+      <c r="B161" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="C161" s="0" t="s">
+      <c r="C161" s="1" t="s">
         <v>276</v>
       </c>
       <c r="D161" s="3" t="n">
@@ -3916,10 +3554,10 @@
       <c r="A162" s="1" t="n">
         <v>161</v>
       </c>
-      <c r="B162" s="0" t="s">
+      <c r="B162" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="C162" s="0" t="s">
+      <c r="C162" s="1" t="s">
         <v>278</v>
       </c>
       <c r="D162" s="3" t="n">
@@ -3930,10 +3568,10 @@
       <c r="A163" s="1" t="n">
         <v>162</v>
       </c>
-      <c r="B163" s="0" t="s">
+      <c r="B163" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="C163" s="0" t="s">
+      <c r="C163" s="1" t="s">
         <v>280</v>
       </c>
       <c r="D163" s="3" t="n">
@@ -3944,10 +3582,10 @@
       <c r="A164" s="1" t="n">
         <v>163</v>
       </c>
-      <c r="B164" s="0" t="s">
+      <c r="B164" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="C164" s="5" t="s">
+      <c r="C164" s="4" t="s">
         <v>282</v>
       </c>
       <c r="D164" s="3" t="n">
@@ -4132,7 +3770,7 @@
       <c r="C177" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="D177" s="6" t="n">
+      <c r="D177" s="3" t="n">
         <v>44942</v>
       </c>
     </row>
@@ -4244,7 +3882,7 @@
       <c r="C185" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="D185" s="6" t="n">
+      <c r="D185" s="3" t="n">
         <v>44972</v>
       </c>
     </row>
@@ -4258,7 +3896,7 @@
       <c r="C186" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="D186" s="6" t="n">
+      <c r="D186" s="3" t="n">
         <v>44973</v>
       </c>
     </row>
@@ -4386,6 +4024,34 @@
       </c>
       <c r="D195" s="3" t="n">
         <v>45282</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="D196" s="2" t="n">
+        <v>45343</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="D197" s="2" t="n">
+        <v>45345</v>
       </c>
     </row>
   </sheetData>
